--- a/data/trans_dic/P2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en su vivienda habitual</t>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>89,56%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>89,46%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>96,17%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>92,62%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>85,87%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>79,35%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>86,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>79,61%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>94,24%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>92,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>93,81%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>95,39%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>89,13%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>85,19%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>95,03%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>89,25%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>85,4%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>88,98%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>91,71%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>94,56%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 97,69</t>
+          <t>90,58; 97,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,07; 98,76</t>
+          <t>92,09; 98,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,67; 96,15</t>
+          <t>86,6; 96,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,39; 95,27</t>
+          <t>84,23; 95,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,29; 94,9</t>
+          <t>82,4; 94,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,32; 96,54</t>
+          <t>79,8; 94,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,25; 96,78</t>
+          <t>90,23; 99,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,56; 90,86</t>
+          <t>83,9; 96,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,68; 85,96</t>
+          <t>88,1; 96,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>88,94; 97,51</t>
+          <t>79,16; 91,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89,58; 96,06</t>
+          <t>70,85; 85,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,54; 97,37</t>
+          <t>81,25; 93,21</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,28; 92,07</t>
+          <t>89,22; 97,46</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,98; 89,15</t>
+          <t>86,79; 96,61</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>86,22; 95,12</t>
+          <t>89,87; 96,19</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>92,28; 97,07</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>85,26; 92,42</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>80,5; 89,51</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>83,51; 92,39</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>85,56; 95,23</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>89,92; 97,08</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>90,27%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>90,88%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>94,19%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>93,44%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>94,03%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>94,13%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>93,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94,13%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>90,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>97,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>94,11%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>90,38%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>92,76%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
           <t>90,02%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>94,11%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>90,97%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>93,06%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>90,44%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>94,42%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>90,15%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>93,85%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,0; 96,82</t>
+          <t>89,39; 96,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,67; 93,93</t>
+          <t>71,51; 93,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,53; 96,54</t>
+          <t>78,11; 96,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,32; 92,93</t>
+          <t>72,75; 93,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,41; 94,75</t>
+          <t>89,27; 97,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,42; 96,5</t>
+          <t>82,67; 94,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,17; 96,46</t>
+          <t>83,88; 95,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,51; 96,67</t>
+          <t>89,98; 96,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,86; 96,33</t>
+          <t>89,22; 96,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82,07; 94,12</t>
+          <t>90,72; 96,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>91,56; 96,13</t>
+          <t>89,28; 96,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,83; 94,17</t>
+          <t>89,22; 97,29</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>86,8; 95,5</t>
+          <t>83,39; 94,73</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>82,39; 93,61</t>
+          <t>93,36; 98,88</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>85,84; 93,41</t>
+          <t>91,37; 96,19</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>82,55; 93,85</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>85,48; 95,54</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>80,83; 93,28</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>91,16; 96,76</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>86,03; 93,62</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>89,95; 96,39</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>97,02%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>96,9%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>95,57%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>92,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>94,29%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>94,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94,99%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98,05%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>95,75%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>94,85%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>91,72%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>94,75%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>94,66%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>94,55%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>95,18%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>94,98%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>97,55%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>96,36%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,74; 96,51</t>
+          <t>90,55; 96,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,19; 95,26</t>
+          <t>91,3; 97,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,04; 97,34</t>
+          <t>93,13; 97,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,07; 96,76</t>
+          <t>91,73; 96,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,96; 98,7</t>
+          <t>93,95; 98,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,9; 97,52</t>
+          <t>94,22; 98,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,94; 95,77</t>
+          <t>93,07; 98,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,35; 96,32</t>
+          <t>92,93; 97,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,64; 96,68</t>
+          <t>90,76; 96,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,73</t>
+          <t>91,88; 96,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,76; 96,32</t>
+          <t>92,49; 96,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>84,35; 94,92</t>
+          <t>95,86; 99,4</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>92,74; 96,35</t>
+          <t>92,87; 97,75</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>92,67; 96,23</t>
+          <t>88,98; 95,97</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>94,3; 97,65</t>
+          <t>92,79; 96,37</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>92,28; 96,25</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>93,4; 96,57</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>92,93; 96,36</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>95,86; 98,64</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>94,35; 97,73</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>92,21; 96,67</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>97,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>97,67%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>97,2%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>96,28%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>96,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>96,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97,34%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>97,43%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>95,86%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>94,04%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>95,97%</t>
-        </is>
-      </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
+          <t>95,87%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94,47%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>96,26%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>96,38%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>97,51%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>97,56%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>95,78%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,01; 96,57</t>
+          <t>91,37; 96,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 97,15</t>
+          <t>91,78; 97,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,81; 97,61</t>
+          <t>93,13; 97,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,09; 97,98</t>
+          <t>93,6; 98,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,01; 99,14</t>
+          <t>95,41; 99,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,2; 98,6</t>
+          <t>94,69; 99,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,98; 95,93</t>
+          <t>91,07; 97,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>93,44; 98,03</t>
+          <t>94,94; 98,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,54; 97,91</t>
+          <t>91,33; 96,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,42; 99,08</t>
+          <t>94,48; 98,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94,22; 97,28</t>
+          <t>94,26; 98,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,55; 95,93</t>
+          <t>93,64; 98,91</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,93; 97,32</t>
+          <t>94,7; 99,13</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,3; 97,41</t>
+          <t>94,34; 98,5</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>95,62; 98,75</t>
+          <t>94,12; 97,15</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>92,19; 96,19</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>94,54; 97,47</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>94,73; 97,68</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>95,38; 98,52</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>95,65; 98,66</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>93,48; 97,3</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>94,32%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>95,3%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>94,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95,55%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>96,61%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>96,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>96,53%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>96,34%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>95,43%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>95,26%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>96,41%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>96,05%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>95,45%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>95,19%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>95,73%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>96,42%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>96,12%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,44; 99,63</t>
+          <t>96,27; 99,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,27; 99,38</t>
+          <t>93,8; 99,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,41; 98,07</t>
+          <t>92,61; 98,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,99; 98,1</t>
+          <t>92,65; 98,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,04; 98,44</t>
+          <t>92,54; 97,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,84; 96,79</t>
+          <t>92,16; 98,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,13; 97,45</t>
+          <t>91,34; 97,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,89; 97,34</t>
+          <t>90,59; 96,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,84; 96,7</t>
+          <t>90,67; 97,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,57</t>
+          <t>90,1; 96,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>94,52; 98,01</t>
+          <t>90,87; 96,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>94,36; 97,9</t>
+          <t>88,0; 98,7</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>92,99; 97,14</t>
+          <t>93,16; 98,53</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>93,01; 97,03</t>
+          <t>92,87; 98,44</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>93,97; 98,19</t>
+          <t>94,35; 97,88</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>93,75; 97,73</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>93,02; 97,09</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>92,94; 96,92</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>91,3; 97,73</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>93,96; 97,96</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>93,92; 97,75</t>
         </is>
       </c>
     </row>
@@ -1535,72 +1884,102 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>96,84%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>97,09%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>92,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>95,14%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>92,82%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>92,27%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>93,42%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>93,69%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>96,96%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>93,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>94,48%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>94,44%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>93,8%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>92,84%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>97,02%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>94,58%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>94,55%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>94,29%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>95,06%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>97,01%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,25; 96,42</t>
+          <t>89,32; 96,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,55; 98,62</t>
+          <t>93,63; 98,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,95; 98,63</t>
+          <t>90,37; 98,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,97; 99,05</t>
+          <t>94,12; 98,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,66; 99,35</t>
+          <t>92,09; 98,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>91,92; 97,11</t>
+          <t>93,37; 99,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,64; 95,84</t>
+          <t>85,33; 96,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,16; 96,41</t>
+          <t>92,44; 97,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,88; 96,23</t>
+          <t>88,35; 95,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,0; 99,09</t>
+          <t>86,18; 96,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,12; 96,08</t>
+          <t>80,6; 96,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>90,99; 96,45</t>
+          <t>89,02; 96,74</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>87,85; 96,45</t>
+          <t>92,33; 99,08</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>82,14; 96,6</t>
+          <t>87,12; 96,72</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>94,43; 98,78</t>
+          <t>92,12; 96,25</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>91,93; 96,54</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>90,13; 96,77</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>87,93; 96,73</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>92,47; 97,32</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>94,05; 98,84</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>89,17; 95,64</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>93,78%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>95,55%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>94,84%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>94,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>93,75%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>95,05%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>93,45%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>93,13%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>91,67%</t>
-        </is>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>93,51%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>92,22%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>94,85%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>95,36%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>94,98%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>94,96%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>93,69%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>92,69%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>94,17%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>95,19%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>95,1%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,96</t>
+          <t>93,58; 95,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,76</t>
+          <t>91,84; 95,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>92,62; 95,94</t>
+          <t>92,0; 95,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,05; 95,06</t>
+          <t>91,05; 95,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,8; 96,27</t>
+          <t>94,15; 96,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,7; 96,03</t>
+          <t>92,86; 96,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,53; 94,85</t>
+          <t>92,7; 95,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,09; 94,62</t>
+          <t>93,59; 95,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>88,27; 93,51</t>
+          <t>92,38; 94,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>93,86; 96,61</t>
+          <t>91,74; 94,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>94,02; 95,73</t>
+          <t>90,03; 93,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,0; 94,77</t>
+          <t>93,17; 96,29</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,48; 94,96</t>
+          <t>93,74; 96,62</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>90,44; 93,89</t>
+          <t>93,43; 96,21</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>93,93; 96,04</t>
+          <t>93,96; 95,66</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>92,81; 95,17</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>92,73; 95,0</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>91,27; 94,06</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>94,1; 96,17</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>93,88; 96,06</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>93,55; 95,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,99%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>486755</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>483965</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>483750</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>465273</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>418255</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37640</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>428697</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>438616</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>443631</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>407698</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>421930</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>35242</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>35742</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>915452</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>922581</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>927381</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>872971</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>840186</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>72883</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>78118</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>464649; 500745</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>462363; 495380</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>453954; 503443</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>429664; 487841</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>384794; 442853</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33574; 39964</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39757; 43672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>388323; 446613</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>413032; 453042</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>407575; 468959</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>362839; 438881</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>387758; 444863</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>33368; 36448</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33461; 37245</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>876999; 938610</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>895958; 942374</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>885920; 960383</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>822967; 914996</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>788543; 872343</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>67997; 75681</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>74291; 80208</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>529756</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>504296</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>517604</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>515532</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>549044</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45023</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44536</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>488734</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>482922</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>478187</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>483200</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>475450</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>42499</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>44633</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1018490</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>987218</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>995792</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>998730</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1024494</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>87523</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>89168</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>503651; 544758</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>409936; 537212</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>441724; 543469</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>430790; 551744</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>517677; 566850</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41234; 47147</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41106; 46703</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>466879; 502103</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>463112; 499373</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>460857; 490368</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>461900; 497026</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>450673; 491421</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>39364; 44716</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>42951; 45490</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>988861; 1041001</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>901789; 1025149</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>917634; 1025651</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>896828; 1034917</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>989039; 1049863</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>83523; 90892</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>85461; 91580</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>557.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>619.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>636069</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>651683</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>652556</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>645783</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>658647</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58343</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>58642</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>663425</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>670973</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>679151</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>677973</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>703441</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>51627</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>51077</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1299493</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1322656</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1331707</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1323757</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1362088</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>109970</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>109718</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>612008; 652164</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>626677; 668191</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>633948; 664972</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>623842; 659389</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>637789; 670120</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56728; 59450</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56556; 59862</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>645104; 676002</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>646620; 689086</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>660076; 693389</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>660089; 690731</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>687732; 713121</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>50070; 52706</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>48810; 52641</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1271302; 1320405</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1290839; 1346364</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1306800; 1351174</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1295264; 1343068</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1338453; 1377370</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>107673; 111535</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>106614; 111771</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>346.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>531.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>602673</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>613369</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>618949</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>614498</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>640542</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56912</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53927</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>683562</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>645757</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>651025</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>637384</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>643803</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>51080</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>51879</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1286236</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1259127</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1269974</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1251882</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1284345</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>107993</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>105806</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>583379; 615652</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>594051; 628279</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>601602; 630098</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>598160; 626384</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>625670; 650484</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>55173; 57738</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51874; 55395</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>667641; 693412</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>626183; 661730</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>636209; 661266</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>622015; 646799</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>619342; 654179</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>49649; 51973</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>50485; 52707</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1262795; 1303415</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1228816; 1282050</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1247295; 1286014</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1230479; 1268767</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1256281; 1297728</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>105878; 109211</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>103269; 107491</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>505218</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>482241</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>484261</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>474743</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>474870</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42799</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43151</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>473895</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>482427</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>476971</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>485342</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>493917</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>47117</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>45244</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>979114</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>964668</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>961232</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>960085</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>968786</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>89917</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>88395</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>492837; 510047</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>464582; 490437</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>466648; 494747</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>457182; 484678</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>458119; 485063</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40998; 43821</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41212; 44168</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>455176; 485842</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>461533; 494804</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>453341; 487881</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>468088; 498810</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>454900; 510215</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>45435; 48056</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>43507; 46116</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>957083; 992894</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>941576; 981553</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>936768; 977686</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>937344; 977508</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>923928; 988948</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>87625; 91353</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>86372; 89892</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>511871</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>528252</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>508272</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>516907</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>548502</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>45475</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42245</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>695546</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>666263</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>646346</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>638249</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>688195</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>61784</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>59649</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1207416</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1194514</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1154617</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1155157</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1236697</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>107259</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>101893</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>488475; 527847</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>510453; 539528</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>478257; 521733</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>501071; 526383</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>521595; 560406</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43731; 46539</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>39118; 44092</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>675810; 710764</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>634087; 686448</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>596297; 668767</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>558296; 664991</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>653928; 710634</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>58836; 63133</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>55471; 61584</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1177275; 1230034</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1161039; 1219257</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1100583; 1181680</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1077248; 1184952</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>1202989; 1266102</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>103978; 109281</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>97654; 104742</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1279.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1096.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1268.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>994.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>876.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>866.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1525.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1267.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1552.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1561.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1224.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1044.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1059.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2804.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2363.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>2844.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2829.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>2218.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>1920.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1925.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3272342</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3263807</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3265392</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3232735</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3289857</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>286193</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>284876</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3433859</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3386957</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3375312</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3329846</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3426737</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>289351</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>288222</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>6706201</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6650764</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>6640704</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>6562581</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>6716594</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>575544</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>573099</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3228125; 3309749</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3167852; 3309056</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3173619; 3309837</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3138783; 3286706</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3241431; 3334463</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>280224; 290237</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>279735; 289038</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3381224; 3467091</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3337371; 3431047</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3311669; 3419107</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3250804; 3381829</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3365949; 3478816</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>284434; 293180</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>283516; 291952</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6635832; 6755839</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6554181; 6720959</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6546036; 6706062</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>6441762; 6638672</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>6639321; 6785399</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>568187; 581359</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>566157; 578918</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>